--- a/VBA/シンプル転記/testdata/src/src.xlsx
+++ b/VBA/シンプル転記/testdata/src/src.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\シンプル転記\testdata\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D0069-49FC-4D5F-ACA7-18CCAD0F6239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12563D1-1A0F-4767-B1EE-B1C990161E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9442" yWindow="195" windowWidth="12473" windowHeight="14048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -365,6 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -385,7 +393,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -398,7 +406,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/VBA/シンプル転記/testdata/src/src.xlsx
+++ b/VBA/シンプル転記/testdata/src/src.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\シンプル転記\testdata\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12563D1-1A0F-4767-B1EE-B1C990161E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890E3AE-8E86-4DFA-99EF-F5F079120361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VBA/シンプル転記/testdata/src/src.xlsx
+++ b/VBA/シンプル転記/testdata/src/src.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\シンプル転記\testdata\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890E3AE-8E86-4DFA-99EF-F5F079120361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6A445-E25B-4F45-9589-76842BD1D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" r:id="rId1"/>
+    <sheet name="dst" sheetId="3" r:id="rId2"/>
+    <sheet name="dst__ORG" sheetId="4" r:id="rId3"/>
+    <sheet name="dst_EXPECT" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +43,10 @@
   </si>
   <si>
     <t>PID3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -376,7 +383,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -414,4 +421,184 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04D8EB-D8CC-41BB-B140-CBD2E15529E4}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3019E01B-6BF3-4836-9C9D-A5B56A422674}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9BB018-B675-438F-AD72-58062366C580}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/VBA/シンプル転記/testdata/src/src.xlsx
+++ b/VBA/シンプル転記/testdata/src/src.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\シンプル転記\testdata\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6A445-E25B-4F45-9589-76842BD1D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB76FD2-445D-4315-876B-08C478E305C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,42 @@
   <si>
     <t>PID2</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -380,15 +416,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,25 +432,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -426,48 +504,81 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04D8EB-D8CC-41BB-B140-CBD2E15529E4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -485,7 +596,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -538,36 +649,69 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9BB018-B675-438F-AD72-58062366C580}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -575,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -583,12 +727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
